--- a/Source/Data/TidakAdaSinyal.xlsx
+++ b/Source/Data/TidakAdaSinyal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lydia.natalia\Desktop\INSTALASI DA\Git Project\Source\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A514BCB-F6D9-48EE-9631-1D6183D162DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0901738A-BE9A-4055-B5FD-150CE33B83E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{85798A62-75C5-413F-986E-D4831BA4632B}"/>
   </bookViews>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266EE86D-448A-4F72-A1D4-86B49F093AE9}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F36" sqref="A36:F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,19 +508,19 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="C1">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D1">
         <v>2019</v>
       </c>
       <c r="E1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F1">
-        <v>2014</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -528,19 +528,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D2">
         <v>89</v>
       </c>
       <c r="E2">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F2">
-        <v>132</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -548,19 +548,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>150</v>
+        <v>257</v>
       </c>
       <c r="C3">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D3">
         <v>168</v>
       </c>
       <c r="E3">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="F3">
-        <v>257</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -568,19 +568,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D4">
         <v>38</v>
       </c>
       <c r="E4">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F4">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -588,19 +588,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C5">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F5">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -608,19 +608,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D6">
         <v>37</v>
       </c>
       <c r="E6">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F6">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -628,19 +628,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D7">
         <v>32</v>
       </c>
       <c r="E7">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -648,19 +648,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F8">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -668,19 +668,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>11</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F9">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -688,7 +688,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -708,19 +708,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -748,19 +748,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D13">
         <v>10</v>
       </c>
       <c r="E13">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F13">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -768,19 +768,19 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>9</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -808,19 +808,19 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F16">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -828,19 +828,19 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -848,19 +848,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -868,19 +868,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -888,19 +888,19 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>72</v>
+        <v>292</v>
       </c>
       <c r="C20">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="D20">
         <v>132</v>
       </c>
       <c r="E20">
-        <v>197</v>
+        <v>128</v>
       </c>
       <c r="F20">
-        <v>292</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -908,19 +908,19 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>190</v>
+        <v>368</v>
       </c>
       <c r="C21">
-        <v>218</v>
+        <v>327</v>
       </c>
       <c r="D21">
         <v>265</v>
       </c>
       <c r="E21">
-        <v>327</v>
+        <v>218</v>
       </c>
       <c r="F21">
-        <v>368</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -928,19 +928,19 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>169</v>
+        <v>293</v>
       </c>
       <c r="C22">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="D22">
         <v>188</v>
       </c>
       <c r="E22">
-        <v>234</v>
+        <v>170</v>
       </c>
       <c r="F22">
-        <v>293</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -948,19 +948,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C23">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="D23">
         <v>27</v>
       </c>
       <c r="E23">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F23">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -968,19 +968,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C24">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D24">
         <v>46</v>
       </c>
       <c r="E24">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F24">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -988,19 +988,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="C25">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D25">
         <v>33</v>
       </c>
       <c r="E25">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="F25">
-        <v>139</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1008,19 +1008,19 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="C26">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D26">
         <v>44</v>
       </c>
       <c r="E26">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="F26">
-        <v>89</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1028,19 +1028,19 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>149</v>
+        <v>265</v>
       </c>
       <c r="C27">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="D27">
         <v>186</v>
       </c>
       <c r="E27">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="F27">
-        <v>265</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1048,19 +1048,19 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="C28">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D28">
         <v>67</v>
       </c>
       <c r="E28">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F28">
-        <v>111</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1068,19 +1068,19 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="C29">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="D29">
         <v>138</v>
       </c>
       <c r="E29">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="F29">
-        <v>203</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1088,19 +1088,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D30">
         <v>11</v>
       </c>
       <c r="E30">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F30">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1108,19 +1108,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C31">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D31">
         <v>132</v>
       </c>
       <c r="E31">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F31">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1128,19 +1128,19 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>92</v>
+        <v>334</v>
       </c>
       <c r="C32">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="D32">
         <v>138</v>
       </c>
       <c r="E32">
-        <v>190</v>
+        <v>123</v>
       </c>
       <c r="F32">
-        <v>334</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1148,19 +1148,19 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>65</v>
+        <v>292</v>
       </c>
       <c r="C33">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="D33">
         <v>115</v>
       </c>
       <c r="E33">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="F33">
-        <v>292</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1168,19 +1168,19 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>553</v>
+        <v>890</v>
       </c>
       <c r="C34">
-        <v>605</v>
+        <v>825</v>
       </c>
       <c r="D34">
         <v>762</v>
       </c>
       <c r="E34">
-        <v>825</v>
+        <v>605</v>
       </c>
       <c r="F34">
-        <v>890</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1188,19 +1188,19 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>3099</v>
+        <v>3360</v>
       </c>
       <c r="C35">
-        <v>3294</v>
+        <v>3345</v>
       </c>
       <c r="D35">
         <v>3234</v>
       </c>
       <c r="E35">
-        <v>3345</v>
+        <v>3294</v>
       </c>
       <c r="F35">
-        <v>3360</v>
+        <v>3099</v>
       </c>
     </row>
   </sheetData>

--- a/Source/Data/TidakAdaSinyal.xlsx
+++ b/Source/Data/TidakAdaSinyal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lydia.natalia\Desktop\INSTALASI DA\Git Project\Source\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0901738A-BE9A-4055-B5FD-150CE33B83E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020BFF8D-47E8-441E-B212-56F9B15289E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{85798A62-75C5-413F-986E-D4831BA4632B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Provinsi</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>PAPUA</t>
+  </si>
+  <si>
+    <t>INDONESIA</t>
   </si>
 </sst>
 </file>
@@ -492,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266EE86D-448A-4F72-A1D4-86B49F093AE9}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,6 +1206,26 @@
         <v>3099</v>
       </c>
     </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7717</v>
+      </c>
+      <c r="C36">
+        <v>6759</v>
+      </c>
+      <c r="D36">
+        <v>5972</v>
+      </c>
+      <c r="E36">
+        <v>5705</v>
+      </c>
+      <c r="F36">
+        <v>5158</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Source/Data/TidakAdaSinyal.xlsx
+++ b/Source/Data/TidakAdaSinyal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lydia.natalia\Desktop\INSTALASI DA\Git Project\Source\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020BFF8D-47E8-441E-B212-56F9B15289E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC75AB9-4EFC-4FFD-B787-BDAFDF739D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{85798A62-75C5-413F-986E-D4831BA4632B}"/>
   </bookViews>
@@ -143,7 +143,7 @@
     <t>PAPUA</t>
   </si>
   <si>
-    <t>INDONESIA</t>
+    <t>RATA-RATA INDONESIA</t>
   </si>
 </sst>
 </file>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266EE86D-448A-4F72-A1D4-86B49F093AE9}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
